--- a/AI/dataset/가슴/routine.xlsx
+++ b/AI/dataset/가슴/routine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thsdb\AppData\Local\Programs\Python\Python39\MyProject\son-yu-seoung-git_hub\2022_KIKOM\AI\dataset\가슴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340C08E-3788-4222-B78C-2BD11D014930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22916633-6C64-4BD9-BD07-1B270E96E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="3360" windowWidth="14055" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16785" yWindow="3090" windowWidth="14055" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>푸쉬업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,34 @@
   </si>
   <si>
     <t>운동5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치프레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블크로스오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체스트프레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펙덱플라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤벨플라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤벨프레스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,6 +471,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset/가슴/routine.xlsx
+++ b/AI/dataset/가슴/routine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thsdb\AppData\Local\Programs\Python\Python39\MyProject\son-yu-seoung-git_hub\2022_KIKOM\AI\dataset\가슴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22916633-6C64-4BD9-BD07-1B270E96E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A49F59-7318-4EA9-A6F1-5625458BD72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="3090" windowWidth="14055" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="12000" windowHeight="6795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>푸쉬업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,22 @@
   </si>
   <si>
     <t>덤벨프레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인클라인덤벨프레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디클라인벤치프레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인클라인덤벨플라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스미스머신벤치프레스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,6 +540,51 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
